--- a/测试单-电子书_txt-word_161012.xlsx
+++ b/测试单-电子书_txt-word_161012.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="620">
   <si>
     <t>编号</t>
   </si>
@@ -5650,6 +5650,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某些特殊情况下，分行还没有完成时计算页码，导致使用了空指针。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8250,7 +8258,7 @@
   <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O220" sqref="O220"/>
+      <selection activeCell="N219" sqref="N219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16609,10 +16617,10 @@
       </c>
       <c r="H218" s="267"/>
       <c r="P218" s="260" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="40.5" hidden="1">
       <c r="A219" s="169">
         <v>217</v>
       </c>
@@ -16635,6 +16643,15 @@
         <v>609</v>
       </c>
       <c r="H219" s="267"/>
+      <c r="L219" s="260" t="s">
+        <v>618</v>
+      </c>
+      <c r="N219" s="260" t="s">
+        <v>619</v>
+      </c>
+      <c r="O219" s="248">
+        <v>42656</v>
+      </c>
       <c r="P219" s="260" t="s">
         <v>615</v>
       </c>
@@ -16705,7 +16722,7 @@
   <autoFilter ref="A2:P221">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161012.xlsx
+++ b/测试单-电子书_txt-word_161012.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="621">
   <si>
     <t>编号</t>
   </si>
@@ -5658,6 +5658,10 @@
   </si>
   <si>
     <t>在某些特殊情况下，分行还没有完成时计算页码，导致使用了空指针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8257,8 +8261,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N219" sqref="N219"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="O214" sqref="O214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16472,7 +16476,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="27">
+    <row r="214" spans="1:16" ht="27" hidden="1">
       <c r="A214" s="354">
         <v>212</v>
       </c>
@@ -16495,6 +16499,12 @@
         <v>549</v>
       </c>
       <c r="H214" s="267"/>
+      <c r="L214" s="260" t="s">
+        <v>620</v>
+      </c>
+      <c r="O214" s="248">
+        <v>42656</v>
+      </c>
       <c r="P214" s="260" t="s">
         <v>588</v>
       </c>
@@ -16722,7 +16732,7 @@
   <autoFilter ref="A2:P221">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161012.xlsx
+++ b/测试单-电子书_txt-word_161012.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="622">
   <si>
     <t>编号</t>
   </si>
@@ -5658,6 +5658,10 @@
   </si>
   <si>
     <t>在某些特殊情况下，分行还没有完成时计算页码，导致使用了空指针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8261,8 +8265,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="O214" sqref="O214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O216" sqref="O216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16545,7 +16549,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="27">
+    <row r="216" spans="1:16" ht="27" hidden="1">
       <c r="A216" s="354">
         <v>214</v>
       </c>
@@ -16568,13 +16572,17 @@
         <v>571</v>
       </c>
       <c r="H216" s="267"/>
-      <c r="L216" s="267"/>
-      <c r="O216" s="248"/>
+      <c r="L216" s="267" t="s">
+        <v>621</v>
+      </c>
+      <c r="O216" s="248">
+        <v>42656</v>
+      </c>
       <c r="P216" s="260" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="353" customFormat="1" ht="27">
+    <row r="217" spans="1:16" s="353" customFormat="1" ht="27" hidden="1">
       <c r="A217" s="355">
         <v>215</v>
       </c>
@@ -16597,8 +16605,12 @@
         <v>572</v>
       </c>
       <c r="H217" s="352"/>
-      <c r="L217" s="352"/>
-      <c r="O217" s="357"/>
+      <c r="L217" s="352" t="s">
+        <v>621</v>
+      </c>
+      <c r="O217" s="357">
+        <v>42656</v>
+      </c>
       <c r="P217" s="353" t="s">
         <v>588</v>
       </c>

--- a/测试单-电子书_txt-word_161012.xlsx
+++ b/测试单-电子书_txt-word_161012.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="625">
   <si>
     <t>编号</t>
   </si>
@@ -5666,6 +5666,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示框消失后提示页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回时重置音量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8265,8 +8277,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O216" sqref="O216"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="N221" sqref="N221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16638,6 +16650,12 @@
         <v>607</v>
       </c>
       <c r="H218" s="267"/>
+      <c r="L218" s="260" t="s">
+        <v>622</v>
+      </c>
+      <c r="N218" s="260" t="s">
+        <v>623</v>
+      </c>
       <c r="P218" s="260" t="s">
         <v>587</v>
       </c>
@@ -16735,6 +16753,12 @@
       </c>
       <c r="H221" s="267" t="s">
         <v>614</v>
+      </c>
+      <c r="L221" s="260" t="s">
+        <v>622</v>
+      </c>
+      <c r="N221" s="260" t="s">
+        <v>624</v>
       </c>
       <c r="P221" s="260" t="s">
         <v>616</v>
@@ -16744,7 +16768,7 @@
   <autoFilter ref="A2:P221">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
